--- a/biology/Botanique/George_Bentham/George_Bentham.xlsx
+++ b/biology/Botanique/George_Bentham/George_Bentham.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">George Bentham, né le 22 septembre 1800 à Stoke près de Portsmouth et mort le 10 septembre 1884 à Londres[1], est un botaniste britannique, l'un des plus importants systématiciens de botanique du XIXe siècle.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">George Bentham, né le 22 septembre 1800 à Stoke près de Portsmouth et mort le 10 septembre 1884 à Londres, est un botaniste britannique, l'un des plus importants systématiciens de botanique du XIXe siècle.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père, Sir Samuel Bentham (1757-1831), est le seul frère du philosophe Jeremy Bentham (1748-1832). George Bentham ne fréquente pas d'établissements scolaires mais montre très tôt une formidable capacité d'étude. Ses dons en langues étrangères sont considérables. À l'âge de sept ans, il parle le français, l'allemand et le russe et il a de bonnes notions de suédois. Après la fin de la guerre avec la France, la famille Bentham fait un long voyage dans ce pays et s'établit deux ans à Montauban où Bentham étudie l'hébreu et les mathématiques à l'école protestante de la ville. Les Bentham déménagent ensuite près de Montpellier où Sir Samuel achète le domaine de Restinclières à Prades-le-Lez.
 George Bentham s'intéresse à la botanique en voulant appliquer à l'étude des végétaux les méthodes logiques développées par son oncle, Jeremy. Alors qu'il poursuit ses études à Angoulême, il découvre par hasard une Flore française, œuvre d'Augustin Pyrame de Candolle (1778-1841), et s'intéresse au système de détermination qui s'y trouve. Bentham le teste immédiatement avec la première plante qu'il croise. Comme il découvre ainsi le nom de la plante, il poursuit ses tests avec toutes les plantes qu'il croise. Cette expérience finit par l'inciter à se consacrer pleinement à la botanique.
